--- a/addmaterialtest.xlsx
+++ b/addmaterialtest.xlsx
@@ -1109,7 +1109,7 @@
   <x:dimension ref="A1:M11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N9" activeCellId="0" sqref="N9:N9"/>
+      <x:selection activeCell="K7" activeCellId="0" sqref="K7:K7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>

--- a/addmaterialtest.xlsx
+++ b/addmaterialtest.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8898"/>
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.535"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="11205" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -18,127 +23,127 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <x:si>
+    <x:t>MATB1MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리드타임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>센터 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최소공급수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킥스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바텀브라켓 셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(앞)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 RD-M4120 10단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 SM-BB52 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 슬릭 스테인레스 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 E25 옥타링크 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x4 (7,8,9단)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 FD-M4000 9단</x:t>
+  </x:si>
+  <x:si>
     <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
   </x:si>
   <x:si>
-    <x:t>MATB1MAT009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크 케이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT001</x:t>
+    <x:t>스람 x5 10단 뒷변속기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(뒤)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탠드</x:t>
   </x:si>
   <x:si>
     <x:t>조립품</x:t>
   </x:si>
   <x:si>
-    <x:t>스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(앞)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바텀브라켓 셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(뒤)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소공급수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리드타임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x4 (7,8,9단)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 FD-M4000 9단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x5 10단 뒷변속기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 SM-BB52 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 슬릭 스테인레스 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 E25 옥타링크 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 RD-M4120 10단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>센터 스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>킥스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
     <x:t>시마노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무게</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -177,15 +182,15 @@
       <x:color rgb="ff000000"/>
     </x:font>
     <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
     </x:font>
     <x:font>
       <x:name val="Arial"/>
@@ -210,58 +215,58 @@
   <x:borders count="9">
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="medium">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="medium">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="medium">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="medium">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="medium">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -289,21 +294,21 @@
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="medium">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -314,10 +319,10 @@
         <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -328,75 +333,18 @@
         <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="21">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -404,19 +352,19 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -425,36 +373,31 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="20" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="20" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="20" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="7">
-    <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
-    <x:cellStyle xfId="16" builtinId="3" iLevel="0"/>
-    <x:cellStyle xfId="17" builtinId="6" iLevel="0"/>
-    <x:cellStyle xfId="18" builtinId="4" iLevel="0"/>
-    <x:cellStyle xfId="19" builtinId="7" iLevel="0"/>
-    <x:cellStyle xfId="0" builtinId="0" iLevel="0"/>
-    <x:cellStyle name="표준 2" xfId="20"/>
+  <x:cellStyles count="2">
+    <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준 2" xfId="1"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -462,6 +405,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -469,8 +413,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ffd8e4f3"/>
-              <x:bgColor rgb="ffd8e4f3"/>
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -502,8 +446,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ffd8e4f3"/>
-              <x:bgColor rgb="ffd8e4f3"/>
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -533,8 +477,8 @@
     <x:dxf>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffb2c9e6"/>
-          <x:bgColor rgb="ffb2c9e6"/>
+          <x:fgColor rgb="ffaebfea"/>
+          <x:bgColor rgb="ffaebfea"/>
         </x:patternFill>
       </x:fill>
     </x:dxf>
@@ -544,6 +488,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -551,8 +496,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
         </x:dxf>
@@ -565,8 +510,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
         </x:dxf>
@@ -578,6 +523,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -585,8 +531,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -604,8 +550,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -622,6 +568,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -629,8 +576,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -648,8 +595,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -665,6 +612,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -672,22 +620,22 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:left>
             <x:right>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:top>
             <x:bottom style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:vertical>
             <x:horizontal>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -699,22 +647,22 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:left>
             <x:right>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:top>
             <x:bottom style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:vertical>
             <x:horizontal>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -723,24 +671,24 @@
     <x:dxf>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="ff8393b2"/>
-          <x:bgColor rgb="ff8393b2"/>
+          <x:fgColor rgb="ff94a5df"/>
+          <x:bgColor rgb="ff94a5df"/>
         </x:patternFill>
       </x:fill>
       <x:border>
         <x:top style="thin">
-          <x:color rgb="ff315f97"/>
+          <x:color rgb="ff6182d6"/>
         </x:top>
         <x:bottom style="thin">
-          <x:color rgb="ff315f97"/>
+          <x:color rgb="ff6182d6"/>
         </x:bottom>
       </x:border>
     </x:dxf>
     <x:dxf>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="ff315f97"/>
-          <x:bgColor rgb="ff315f97"/>
+          <x:fgColor rgb="ff6182d6"/>
+          <x:bgColor rgb="ff6182d6"/>
         </x:patternFill>
       </x:fill>
     </x:dxf>
@@ -749,6 +697,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -769,6 +718,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -776,7 +726,7 @@
           </x:font>
           <x:border>
             <x:top style="thin">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:top>
           </x:border>
         </x:dxf>
@@ -788,7 +738,7 @@
           </x:font>
           <x:border>
             <x:top style="thin">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:top>
           </x:border>
         </x:dxf>
@@ -799,6 +749,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -806,7 +757,7 @@
           </x:font>
           <x:border>
             <x:bottom style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:bottom>
           </x:border>
         </x:dxf>
@@ -818,7 +769,7 @@
           </x:font>
           <x:border>
             <x:bottom style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:bottom>
           </x:border>
         </x:dxf>
@@ -852,7 +803,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" name="">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -1109,70 +1060,73 @@
   <x:dimension ref="A1:M11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N9" activeCellId="0" sqref="N9:N9"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:M11"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
+  <x:cols>
+    <x:col min="5" max="5" width="12.109375" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" ht="14.300000000000001">
+    <x:row r="1" spans="1:13" ht="14.30000000000000071054">
       <x:c r="A1" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E1" s="2" t="s">
+      <x:c r="J1" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L1" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M1" s="4" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="F1" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="L1" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="M1" s="4" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13">
       <x:c r="A2" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D2" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E2" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G2" s="7">
         <x:v>3</x:v>
@@ -1198,22 +1152,22 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D3" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E3" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F3" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G3" s="7">
         <x:v>3</x:v>
@@ -1239,22 +1193,22 @@
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D4" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E4" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G4" s="7">
         <x:v>3</x:v>
@@ -1280,22 +1234,22 @@
     </x:row>
     <x:row r="5" spans="1:13">
       <x:c r="A5" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D5" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E5" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G5" s="7">
         <x:v>3</x:v>
@@ -1321,22 +1275,22 @@
     </x:row>
     <x:row r="6" spans="1:13">
       <x:c r="A6" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D6" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E6" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F6" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G6" s="7">
         <x:v>3</x:v>
@@ -1362,22 +1316,22 @@
     </x:row>
     <x:row r="7" spans="1:13">
       <x:c r="A7" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F7" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G7" s="7">
         <x:v>3</x:v>
@@ -1403,22 +1357,22 @@
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D8" s="14" t="s">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F8" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G8" s="7">
         <x:v>3</x:v>
@@ -1444,22 +1398,22 @@
     </x:row>
     <x:row r="9" spans="1:13">
       <x:c r="A9" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D9" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F9" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G9" s="7">
         <x:v>3</x:v>
@@ -1485,22 +1439,22 @@
     </x:row>
     <x:row r="10" spans="1:13">
       <x:c r="A10" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D10" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F10" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G10" s="7">
         <x:v>3</x:v>
@@ -1526,22 +1480,22 @@
     </x:row>
     <x:row r="11" spans="1:13">
       <x:c r="A11" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B11" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D11" s="14" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D11" s="14" t="s">
-        <x:v>32</x:v>
-      </x:c>
       <x:c r="E11" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F11" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G11" s="7">
         <x:v>3</x:v>
@@ -1566,7 +1520,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1580,9 +1534,9 @@
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1596,9 +1550,9 @@
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/addmaterialtest.xlsx
+++ b/addmaterialtest.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8898"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="11205" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="27810" windowHeight="11205" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -16,42 +16,477 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="215">
+  <x:si>
+    <x:t>e근두운 36v 리튬이온 배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노E25 옥타링크 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOOBON 고탄성 스프링 쿠션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서스펜션 시트포스트 pm-705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-BB52 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판 스로틀 디스플레이 타입B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 200×50 통타이어 3번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BTR 무통증 스프링 쿠션 자전거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36V 15AH 배터리(기본형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노슬릭 스테인레스 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sp242 시트포스트[레일식]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FC-M371 체인휠세트 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판 스로틀 디스플레이 타입A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노10단 디오레티아그라 스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 킥보드 쇼바 튜닝용 발판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전동킥보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AU테크 레드윙 전동킥보드 전용 계기판/속도계 일반형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MTB프론트 서스펜션 사이클링 앞 쇼바 알루미늄 포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 29인치 1.5~1.75 프레스타 튜브 40mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥시스 자전거 엠티비타이어 크로스마크 CROSSMARK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브러시리스 기어드 허브 모터 방수 9 핀 36V 250W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140mm 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATBOMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATBOMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK1MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK2MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK1MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6선 케이블 1.8m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK1MAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK1MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK1MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탠다드 핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATSAMAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATSAMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판+스로틀 레버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATPEMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATPEMAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달 보조 센서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 레버 - 우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 레버 - 좌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 에어바퀴 휠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에르고노믹 핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATPEMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATSAMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATSAMAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알루미늄 더블림 29인치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노9단 카세트 스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36V 500W 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국자전거 포크 서스펜션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6구 12W 라이트 + 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAK9 브레이크 캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제로2 RHM V2 드롭바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-RT56 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레스타 밸브 48mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48V 800W 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노PD-M520L 페달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알루미늄 싱글림 29인치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 전면 기둥 프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>접이식 핸들 일자형 660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노HB-M6010 허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노HB-M6000 허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>훔페르트 컨테스트 핸들바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레스타 밸브 60mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레인보우 QR 시트클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노RD-M4120 10단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노프로 QR 시트클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테인리스 스포크 1.8mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FD-M4000 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테인리스 스포크 2.0mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-RT66 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x4 (7,8,9단)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x5 10단 뒷변속기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슈발베 29인치[27.5겸용] 프리라이드 광폭 튜브 (40mm) 폭 2.1~3.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모터 휠 전면 후면 브러시리스 기어드 허브 Ebike 변환 키트용 48V 500w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스기노 RD2 PJ130 메신져 트랙 픽시 크랭크세트 46T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노DB-MT201 유압식 디스크 브레이크 (좌우 세트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자전거 프레임셋 TSUN 알루미늄 고정 기어 및 포크 트랙 픽시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노XT PD-M8100 페달 (XC용, SPD 클릿 포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달 보조 센서 용 12 마그네틱 듀얼 홀 통합 전원 Ebike</x:t>
+  </x:si>
   <x:si>
     <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
   </x:si>
   <x:si>
-    <x:t>MATB1MAT009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크 케이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT001</x:t>
+    <x:t>최소공급수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(앞)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리드타임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(뒤)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바텀브라켓 셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킥스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>센터 스탠드</x:t>
   </x:si>
   <x:si>
     <x:t>조립품</x:t>
@@ -60,92 +495,179 @@
     <x:t>스탠드</x:t>
   </x:si>
   <x:si>
-    <x:t>자재코드</x:t>
-  </x:si>
-  <x:si>
     <x:t>단가</x:t>
   </x:si>
   <x:si>
-    <x:t>변속기(앞)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바텀브라켓 셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(뒤)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소공급수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리드타임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x4 (7,8,9단)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 FD-M4000 9단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x5 10단 뒷변속기</x:t>
-  </x:si>
-  <x:si>
     <x:t>부품</x:t>
   </x:si>
   <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세로</x:t>
+  </x:si>
+  <x:si>
     <x:t>자재명</x:t>
   </x:si>
   <x:si>
-    <x:t>시마노 SM-BB52 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 슬릭 스테인레스 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 E25 옥타링크 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 RD-M4120 10단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>센터 스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>킥스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세로</x:t>
-  </x:si>
-  <x:si>
     <x:t>가로</x:t>
   </x:si>
   <x:si>
     <x:t>높이</x:t>
   </x:si>
   <x:si>
-    <x:t>시마노</x:t>
-  </x:si>
-  <x:si>
     <x:t>무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 허브모터 36v 450w 8×2.00-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BR-MT410 유압식 브레이크 캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KUDOS-Q1 세미-인터그레이티드 레드 헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FC-M6000 데오레 10단 체인휠세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할로겐 전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허브 모터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시트 포스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수동식 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LED 전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경적+전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자식 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안장 날개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시트 클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체인 휠세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기둥 프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롬 킥 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT201 브레이크 레버 (우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT200 브레이크 레버 (우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48V 리튬이온 배터리 - 볼턴 배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KHS-PT1860 인터그레이티드 헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로터바이크 인파워 DM 파워미터 크랭크세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT200 브레이크 레버 (좌)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT201 브레이크 레버 (좌)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 세띠아 디펜더(29 x 1.75)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36v 1600w BLDC 모터 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밸브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>튜브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크랭크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핸들바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="9">
+  <x:fonts count="8">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -177,20 +699,15 @@
       <x:color rgb="ff000000"/>
     </x:font>
     <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
-    <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
     <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
       <x:color rgb="ff000000"/>
+      <x:b val="1"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -207,7 +724,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="9">
+  <x:borders count="6">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -251,20 +768,6 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
@@ -276,20 +779,6 @@
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -313,25 +802,11 @@
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
-      <x:top>
-        <x:color indexed="64"/>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
         <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -396,54 +871,36 @@
     <x:xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="15">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="20" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="20" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="20" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="20" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -1106,467 +1563,3176 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:M11"/>
+  <x:dimension ref="A1:L83"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K7" activeCellId="0" sqref="K7:K7"/>
+    <x:sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="N81" activeCellId="0" sqref="N81:N81"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
+  <x:cols>
+    <x:col min="4" max="4" width="55.34765625" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="12.9375" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" ht="14.300000000000001">
+    <x:row r="1" spans="1:12" ht="14.300000000000001">
       <x:c r="A1" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="L1" s="3" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:12">
+      <x:c r="A2" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D2" s="8" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E2" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F2" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G2" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H2" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I2" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J2" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K2" s="5">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="L2" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:12">
+      <x:c r="A3" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B3" s="8" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D3" s="8" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="8" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F3" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G3" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H3" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I3" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J3" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K3" s="5">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="L3" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:12">
+      <x:c r="A4" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B4" s="8" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D4" s="8" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E4" s="8" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F4" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G4" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H4" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I4" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J4" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K4" s="5">
+        <x:v>7900</x:v>
+      </x:c>
+      <x:c r="L4" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:12">
+      <x:c r="A5" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="8" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D5" s="8" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E5" s="8" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F5" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G5" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H5" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I5" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J5" s="5">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K5" s="5">
+        <x:v>8500</x:v>
+      </x:c>
+      <x:c r="L5" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:12">
+      <x:c r="A6" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="8" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D6" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E6" s="8" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F6" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G6" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H6" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I6" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J6" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K6" s="5">
+        <x:v>24000</x:v>
+      </x:c>
+      <x:c r="L6" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:12">
+      <x:c r="A7" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C7" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D7" s="8" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="E7" s="8" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G7" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H7" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I7" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J7" s="5">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K7" s="5">
+        <x:v>55000</x:v>
+      </x:c>
+      <x:c r="L7" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:12">
+      <x:c r="A8" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E8" s="8" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F8" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G8" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H8" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I8" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J8" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K8" s="5">
+        <x:v>14000</x:v>
+      </x:c>
+      <x:c r="L8" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:12">
+      <x:c r="A9" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B9" s="8" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D9" s="8" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E9" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F9" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G9" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H9" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I9" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J9" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K9" s="5">
+        <x:v>18000</x:v>
+      </x:c>
+      <x:c r="L9" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:12">
+      <x:c r="A10" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B10" s="8" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C10" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D10" s="8" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E10" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F10" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G10" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H10" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I10" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J10" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K10" s="5">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="L10" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:12">
+      <x:c r="A11" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B11" s="8" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C11" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D11" s="8" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E11" s="8" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="F11" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G11" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H11" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I11" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J11" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K11" s="5">
+        <x:v>33000</x:v>
+      </x:c>
+      <x:c r="L11" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:12">
+      <x:c r="A12" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B12" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C12" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D12" s="8" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="E12" s="8" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F12" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G12" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H12" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I12" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J12" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K12" s="5">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="L12" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:12">
+      <x:c r="A13" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B13" s="8" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C13" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D13" s="8" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E13" s="8" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F13" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G13" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H13" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I13" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J13" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K13" s="5">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="L13" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:12">
+      <x:c r="A14" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B14" s="8" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C14" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D14" s="8" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E14" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F14" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G14" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H14" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I14" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J14" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K14" s="5">
+        <x:v>7900</x:v>
+      </x:c>
+      <x:c r="L14" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:12">
+      <x:c r="A15" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B15" s="8" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C15" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D15" s="8" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E15" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F15" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G15" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H15" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I15" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J15" s="5">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K15" s="5">
+        <x:v>8500</x:v>
+      </x:c>
+      <x:c r="L15" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:12">
+      <x:c r="A16" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B16" s="8" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C16" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D16" s="8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E16" s="8" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F16" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G16" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H16" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I16" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J16" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K16" s="5">
+        <x:v>24000</x:v>
+      </x:c>
+      <x:c r="L16" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:12">
+      <x:c r="A17" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B17" s="8" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C17" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D17" s="8" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E17" s="8" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F17" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G17" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H17" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I17" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J17" s="5">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K17" s="5">
+        <x:v>55000</x:v>
+      </x:c>
+      <x:c r="L17" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:12">
+      <x:c r="A18" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B18" s="8" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C18" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D18" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E18" s="8" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F18" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G18" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H18" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I18" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J18" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K18" s="5">
+        <x:v>14000</x:v>
+      </x:c>
+      <x:c r="L18" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:12">
+      <x:c r="A19" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B19" s="8" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C19" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D19" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E19" s="8" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="F19" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G19" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H19" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I19" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J19" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K19" s="5">
+        <x:v>18000</x:v>
+      </x:c>
+      <x:c r="L19" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:12">
+      <x:c r="A20" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B20" s="8" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C20" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D20" s="8" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E20" s="8" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F20" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G20" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H20" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I20" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J20" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K20" s="5">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="L20" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:12">
+      <x:c r="A21" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B21" s="8" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C21" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D21" s="8" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E21" s="8" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F21" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G21" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H21" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I21" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J21" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K21" s="5">
+        <x:v>33000</x:v>
+      </x:c>
+      <x:c r="L21" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:12">
+      <x:c r="A22" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B22" s="8" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C22" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D22" s="8" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E22" s="8" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F22" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G22" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H22" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I22" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J22" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K22" s="5">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="L22" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:12">
+      <x:c r="A23" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B23" s="8" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C23" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D23" s="8" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E23" s="8" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F23" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G23" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H23" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I23" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J23" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K23" s="5">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="L23" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:12">
+      <x:c r="A24" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B24" s="8" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C24" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D24" s="8" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E24" s="8" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F24" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G24" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H24" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I24" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J24" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K24" s="5">
+        <x:v>7900</x:v>
+      </x:c>
+      <x:c r="L24" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:12">
+      <x:c r="A25" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B25" s="8" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C25" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D25" s="8" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E25" s="8" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F25" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G25" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H25" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I25" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J25" s="5">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K25" s="5">
+        <x:v>8500</x:v>
+      </x:c>
+      <x:c r="L25" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:12">
+      <x:c r="A26" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B26" s="8" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C26" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D26" s="8" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E26" s="8" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F26" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G26" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H26" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I26" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J26" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K26" s="5">
+        <x:v>24000</x:v>
+      </x:c>
+      <x:c r="L26" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:12">
+      <x:c r="A27" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B27" s="8" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C27" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D27" s="8" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E27" s="8" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F27" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G27" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H27" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I27" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J27" s="5">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K27" s="5">
+        <x:v>55000</x:v>
+      </x:c>
+      <x:c r="L27" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:12">
+      <x:c r="A28" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B28" s="8" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C28" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D28" s="8" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E28" s="8" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F28" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G28" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H28" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I28" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J28" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K28" s="5">
+        <x:v>14000</x:v>
+      </x:c>
+      <x:c r="L28" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:12">
+      <x:c r="A29" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B29" s="8" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C29" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D29" s="8" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E29" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F29" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G29" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H29" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I29" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J29" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K29" s="5">
+        <x:v>18000</x:v>
+      </x:c>
+      <x:c r="L29" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:12">
+      <x:c r="A30" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B30" s="8" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C30" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D30" s="8" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E30" s="8" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F30" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G30" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H30" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I30" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J30" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K30" s="5">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="L30" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:12">
+      <x:c r="A31" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B31" s="8" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C31" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D31" s="8" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E31" s="8" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F31" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G31" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H31" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I31" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J31" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K31" s="5">
+        <x:v>33000</x:v>
+      </x:c>
+      <x:c r="L31" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:12">
+      <x:c r="A32" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B32" s="8" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C32" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D32" s="8" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E32" s="8" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F32" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G32" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H32" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I32" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J32" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K32" s="5">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="L32" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:12">
+      <x:c r="A33" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B33" s="8" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C33" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D33" s="8" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E33" s="8" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F33" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G33" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H33" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I33" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J33" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K33" s="5">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="L33" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:12">
+      <x:c r="A34" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B34" s="8" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C34" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D34" s="8" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E34" s="8" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="F34" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G34" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H34" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I34" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J34" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K34" s="5">
+        <x:v>7900</x:v>
+      </x:c>
+      <x:c r="L34" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:12">
+      <x:c r="A35" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B35" s="8" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C35" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D35" s="8" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E35" s="8" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F35" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G35" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H35" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I35" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J35" s="5">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K35" s="5">
+        <x:v>8500</x:v>
+      </x:c>
+      <x:c r="L35" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:12">
+      <x:c r="A36" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B36" s="8" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C36" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D36" s="8" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E36" s="8" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F36" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G36" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H36" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I36" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J36" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K36" s="5">
+        <x:v>24000</x:v>
+      </x:c>
+      <x:c r="L36" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:12">
+      <x:c r="A37" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B37" s="8" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C37" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D37" s="8" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E37" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F37" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G37" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H37" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I37" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J37" s="5">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K37" s="5">
+        <x:v>55000</x:v>
+      </x:c>
+      <x:c r="L37" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:12">
+      <x:c r="A38" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B38" s="8" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C38" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D38" s="8" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E38" s="8" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F38" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G38" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H38" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I38" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J38" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K38" s="5">
+        <x:v>14000</x:v>
+      </x:c>
+      <x:c r="L38" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:12">
+      <x:c r="A39" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B39" s="8" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C39" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D39" s="8" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E39" s="8" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F39" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G39" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H39" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I39" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J39" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K39" s="5">
+        <x:v>18000</x:v>
+      </x:c>
+      <x:c r="L39" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:12">
+      <x:c r="A40" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B40" s="8" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C40" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D40" s="8" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E40" s="8" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F40" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G40" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H40" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I40" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J40" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K40" s="5">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="L40" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:12">
+      <x:c r="A41" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B41" s="8" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C41" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D41" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E41" s="8" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F41" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G41" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H41" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I41" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J41" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K41" s="5">
+        <x:v>33000</x:v>
+      </x:c>
+      <x:c r="L41" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:12">
+      <x:c r="A42" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B42" s="8" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C42" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D42" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E42" s="8" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F42" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G42" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H42" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I42" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J42" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K42" s="5">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="L42" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:12">
+      <x:c r="A43" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B43" s="8" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C43" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D43" s="8" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="E43" s="8" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F43" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G43" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H43" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I43" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J43" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K43" s="5">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="L43" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:12">
+      <x:c r="A44" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B44" s="8" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C44" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D44" s="8" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E44" s="8" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F44" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G44" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H44" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I44" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J44" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K44" s="5">
+        <x:v>7900</x:v>
+      </x:c>
+      <x:c r="L44" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:12">
+      <x:c r="A45" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B45" s="8" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C45" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D45" s="8" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="E45" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F45" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G45" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H45" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I45" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J45" s="5">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K45" s="5">
+        <x:v>8500</x:v>
+      </x:c>
+      <x:c r="L45" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:12">
+      <x:c r="A46" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B46" s="8" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C46" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D46" s="8" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E46" s="8" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F46" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G46" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H46" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I46" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J46" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K46" s="5">
+        <x:v>24000</x:v>
+      </x:c>
+      <x:c r="L46" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:12">
+      <x:c r="A47" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B47" s="8" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C47" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D47" s="8" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E47" s="8" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F47" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G47" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H47" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I47" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J47" s="5">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K47" s="5">
+        <x:v>55000</x:v>
+      </x:c>
+      <x:c r="L47" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:12">
+      <x:c r="A48" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B48" s="8" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C48" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D48" s="8" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E48" s="8" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F48" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G48" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H48" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I48" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J48" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K48" s="5">
+        <x:v>14000</x:v>
+      </x:c>
+      <x:c r="L48" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:12">
+      <x:c r="A49" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B49" s="8" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C49" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D49" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E49" s="8" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F49" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G49" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H49" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I49" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J49" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K49" s="5">
+        <x:v>18000</x:v>
+      </x:c>
+      <x:c r="L49" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:12">
+      <x:c r="A50" s="8" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E1" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F1" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
+      <x:c r="B50" s="8" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C50" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D50" s="8" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E50" s="8" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F50" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G50" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H50" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I50" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J50" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K50" s="5">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="L50" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:12">
+      <x:c r="A51" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B51" s="8" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C51" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D51" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E51" s="8" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F51" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G51" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H51" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I51" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J51" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K51" s="5">
+        <x:v>33000</x:v>
+      </x:c>
+      <x:c r="L51" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:12">
+      <x:c r="A52" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B52" s="8" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C52" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D52" s="8" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E52" s="8" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F52" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G52" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H52" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I52" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J52" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K52" s="5">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="L52" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:12">
+      <x:c r="A53" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B53" s="8" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C53" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D53" s="8" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E53" s="8" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F53" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G53" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H53" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I53" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J53" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K53" s="5">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="L53" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:12">
+      <x:c r="A54" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B54" s="8" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C54" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D54" s="8" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E54" s="8" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F54" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G54" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H54" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I54" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J54" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K54" s="5">
+        <x:v>7900</x:v>
+      </x:c>
+      <x:c r="L54" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:12">
+      <x:c r="A55" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B55" s="8" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C55" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D55" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E55" s="8" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F55" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G55" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H55" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I55" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J55" s="5">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K55" s="5">
+        <x:v>8500</x:v>
+      </x:c>
+      <x:c r="L55" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:12">
+      <x:c r="A56" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B56" s="8" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C56" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D56" s="8" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E56" s="8" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F56" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G56" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H56" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I56" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J56" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K56" s="5">
+        <x:v>24000</x:v>
+      </x:c>
+      <x:c r="L56" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:12">
+      <x:c r="A57" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B57" s="8" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C57" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D57" s="8" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E57" s="8" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F57" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G57" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H57" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I57" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J57" s="5">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K57" s="5">
+        <x:v>55000</x:v>
+      </x:c>
+      <x:c r="L57" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:12">
+      <x:c r="A58" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B58" s="8" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C58" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D58" s="8" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E58" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F58" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G58" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H58" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I58" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J58" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K58" s="5">
+        <x:v>14000</x:v>
+      </x:c>
+      <x:c r="L58" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:12">
+      <x:c r="A59" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B59" s="8" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C59" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D59" s="8" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E59" s="8" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F59" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G59" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H59" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I59" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J59" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K59" s="5">
+        <x:v>18000</x:v>
+      </x:c>
+      <x:c r="L59" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:12">
+      <x:c r="A60" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B60" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C60" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D60" s="8" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="E60" s="8" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F60" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G60" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H60" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I60" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J60" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K60" s="5">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="L60" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:12">
+      <x:c r="A61" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B61" s="8" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="L1" s="3" t="s">
+      <x:c r="C61" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D61" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E61" s="8" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="M1" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:13">
-      <x:c r="A2" s="10" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B2" s="10" t="s">
+      <x:c r="F61" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G61" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H61" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I61" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J61" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K61" s="5">
+        <x:v>33000</x:v>
+      </x:c>
+      <x:c r="L61" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:12">
+      <x:c r="A62" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B62" s="8" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C62" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D62" s="8" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E62" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C2" s="5" t="s">
+      <x:c r="F62" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G62" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H62" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I62" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J62" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K62" s="5">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="L62" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:12">
+      <x:c r="A63" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B63" s="8" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C63" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D63" s="8" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E63" s="8" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F63" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G63" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H63" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I63" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J63" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K63" s="5">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="L63" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:12">
+      <x:c r="A64" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B64" s="8" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C64" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D64" s="8" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E64" s="8" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F64" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G64" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H64" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I64" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J64" s="5">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D2" s="13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E2" s="10" t="s">
+      <x:c r="K64" s="5">
+        <x:v>7900</x:v>
+      </x:c>
+      <x:c r="L64" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:12">
+      <x:c r="A65" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B65" s="8" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C65" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D65" s="8" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E65" s="8" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F65" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G65" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H65" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I65" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J65" s="5">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K65" s="5">
+        <x:v>8500</x:v>
+      </x:c>
+      <x:c r="L65" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:12">
+      <x:c r="A66" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B66" s="8" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C66" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D66" s="8" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E66" s="8" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F66" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G66" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H66" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I66" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J66" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K66" s="5">
+        <x:v>24000</x:v>
+      </x:c>
+      <x:c r="L66" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:12">
+      <x:c r="A67" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B67" s="8" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C67" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D67" s="8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E67" s="8" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F67" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G67" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H67" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I67" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J67" s="5">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K67" s="5">
+        <x:v>55000</x:v>
+      </x:c>
+      <x:c r="L67" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:12">
+      <x:c r="A68" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B68" s="8" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C68" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D68" s="8" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E68" s="8" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F68" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G68" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H68" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I68" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J68" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K68" s="5">
+        <x:v>14000</x:v>
+      </x:c>
+      <x:c r="L68" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:12">
+      <x:c r="A69" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B69" s="8" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C69" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D69" s="8" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F2" s="6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G2" s="7">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H2" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I2" s="7">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J2" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K2" s="7">
+      <x:c r="E69" s="8" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F69" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G69" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H69" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I69" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J69" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K69" s="5">
+        <x:v>18000</x:v>
+      </x:c>
+      <x:c r="L69" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:12">
+      <x:c r="A70" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B70" s="8" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C70" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D70" s="8" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E70" s="8" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F70" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G70" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H70" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I70" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J70" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K70" s="5">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="L70" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:12">
+      <x:c r="A71" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B71" s="8" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C71" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D71" s="8" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E71" s="8" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F71" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G71" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H71" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I71" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J71" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K71" s="5">
+        <x:v>33000</x:v>
+      </x:c>
+      <x:c r="L71" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:12">
+      <x:c r="A72" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B72" s="8" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C72" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D72" s="8" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E72" s="8" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F72" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G72" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H72" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I72" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J72" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K72" s="5">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="L72" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:12">
+      <x:c r="A73" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B73" s="8" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C73" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D73" s="8" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="E73" s="8" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F73" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G73" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H73" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I73" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J73" s="5">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L2" s="8">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="M2" s="9">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:13">
-      <x:c r="A3" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B3" s="11" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
+      <x:c r="K73" s="5">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="L73" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:12">
+      <x:c r="A74" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B74" s="8" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C74" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D74" s="8" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E74" s="8" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F74" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G74" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H74" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I74" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J74" s="5">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D3" s="14" t="s">
+      <x:c r="K74" s="5">
+        <x:v>7900</x:v>
+      </x:c>
+      <x:c r="L74" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:12">
+      <x:c r="A75" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B75" s="8" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C75" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D75" s="8" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E75" s="8" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F75" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G75" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H75" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I75" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J75" s="5">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K75" s="5">
+        <x:v>8500</x:v>
+      </x:c>
+      <x:c r="L75" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:12">
+      <x:c r="A76" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B76" s="8" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C76" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D76" s="8" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E76" s="8" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F76" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G76" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H76" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I76" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J76" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K76" s="5">
+        <x:v>24000</x:v>
+      </x:c>
+      <x:c r="L76" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:12">
+      <x:c r="A77" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B77" s="8" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C77" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D77" s="8" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E3" s="11" t="s">
+      <x:c r="E77" s="8" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F77" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G77" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H77" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I77" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J77" s="5">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K77" s="5">
+        <x:v>55000</x:v>
+      </x:c>
+      <x:c r="L77" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:12">
+      <x:c r="A78" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B78" s="8" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C78" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D78" s="8" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E78" s="8" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F78" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G78" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H78" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I78" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J78" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K78" s="5">
+        <x:v>14000</x:v>
+      </x:c>
+      <x:c r="L78" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:12">
+      <x:c r="A79" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B79" s="8" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C79" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D79" s="8" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E79" s="8" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F79" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G79" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H79" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I79" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J79" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K79" s="5">
+        <x:v>18000</x:v>
+      </x:c>
+      <x:c r="L79" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:12">
+      <x:c r="A80" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B80" s="8" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C80" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D80" s="8" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E80" s="8" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F80" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G80" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H80" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I80" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J80" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K80" s="5">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="L80" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:12">
+      <x:c r="A81" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B81" s="8" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C81" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D81" s="8" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E81" s="8" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F81" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G81" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H81" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I81" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J81" s="5">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F3" s="6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G3" s="7">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H3" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I3" s="7">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J3" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K3" s="7">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L3" s="8">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="M3" s="9">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:13">
-      <x:c r="A4" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B4" s="11" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="14" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E4" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F4" s="6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G4" s="7">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H4" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I4" s="7">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J4" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K4" s="7">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L4" s="8">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="M4" s="9">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:13">
-      <x:c r="A5" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B5" s="11" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D5" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E5" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G5" s="7">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H5" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I5" s="7">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J5" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K5" s="7">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L5" s="8">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="M5" s="9">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:13">
-      <x:c r="A6" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B6" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D6" s="14" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E6" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F6" s="6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G6" s="7">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H6" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I6" s="7">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J6" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K6" s="7">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L6" s="8">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="M6" s="9">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:13">
-      <x:c r="A7" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B7" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D7" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E7" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F7" s="6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G7" s="7">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H7" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I7" s="7">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J7" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K7" s="7">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L7" s="8">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="M7" s="9">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:13">
-      <x:c r="A8" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B8" s="11" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C8" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D8" s="14" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E8" s="11" t="s">
+      <x:c r="K81" s="5">
+        <x:v>33000</x:v>
+      </x:c>
+      <x:c r="L81" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:12">
+      <x:c r="A82" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B82" s="8" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C82" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D82" s="8" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E82" s="8" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F82" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G82" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H82" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I82" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J82" s="5">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F8" s="6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G8" s="7">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H8" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I8" s="7">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J8" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K8" s="7">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L8" s="8">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="M8" s="9">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:13">
-      <x:c r="A9" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B9" s="11" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C9" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D9" s="14" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E9" s="11" t="s">
+      <x:c r="K82" s="5">
+        <x:v>44000</x:v>
+      </x:c>
+      <x:c r="L82" s="6">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:12">
+      <x:c r="A83" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B83" s="8" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C83" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D83" s="8" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E83" s="8" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F83" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G83" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H83" s="5">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I83" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J83" s="5">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F9" s="6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G9" s="7">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H9" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I9" s="7">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J9" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K9" s="7">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L9" s="8">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="M9" s="9">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:13">
-      <x:c r="A10" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B10" s="11" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C10" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D10" s="14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E10" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F10" s="6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G10" s="7">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H10" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I10" s="7">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J10" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K10" s="7">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L10" s="8">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="M10" s="9">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:13">
-      <x:c r="A11" s="12" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B11" s="11" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C11" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D11" s="14" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E11" s="11" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F11" s="6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G11" s="7">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H11" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I11" s="7">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J11" s="7">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K11" s="7">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L11" s="8">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="M11" s="9">
+      <x:c r="K83" s="5">
+        <x:v>55000</x:v>
+      </x:c>
+      <x:c r="L83" s="6">
         <x:v>100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1582,7 +4748,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1598,7 +4764,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>